--- a/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -679,6 +679,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`.</t>
   </si>
   <si>
@@ -714,6 +715,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`.</t>
   </si>
   <si>
@@ -745,6 +747,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`.</t>
   </si>
   <si>
@@ -776,6 +779,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ObservationDefinition.qualifiedInterval` 0..* `BackboneElement`
 *  R4: `ObservationDefinition.qualifiedInterval` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ObservationDefinition.qualifiedValue` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval`.</t>
+Element `ObservationDefinition.qualifiedValue` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +142,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:ObservationDefinition.qualifiedInterval</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,8 +340,8 @@
     <t>A concept defining the context for this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.context` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.context` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.context`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.context` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.context` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.context`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:context.id</t>
@@ -435,8 +435,8 @@
     <t>If this element is not present then the global population is assumed.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.appliesTo` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.appliesTo` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.appliesTo`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.appliesTo` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.appliesTo` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.appliesTo`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:appliesTo.id</t>
@@ -472,8 +472,8 @@
     <t>The gender this  set of qualified values applies to.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.gender` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.gender` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gender`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.gender` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.gender` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gender`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:gender.id</t>
@@ -516,8 +516,8 @@
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.age` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.age` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.age`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.age` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.age` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.age`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:age.id</t>
@@ -551,8 +551,8 @@
     <t>The gestational age this  set of qualified values applies to.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.gestationalAge` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.gestationalAge` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gestationalAge`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.gestationalAge` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.gestationalAge` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gestationalAge`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:gestationalAge.id</t>
@@ -582,8 +582,8 @@
     <t>Text based condition for which the the set of qualified values is valid.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.condition` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.condition` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.condition`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.condition` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.condition` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.condition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -613,8 +613,8 @@
     <t>The category of range of values for continuous or ordinal observations that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.rangeCategory` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.rangeCategory` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.category`.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.rangeCategory` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.rangeCategory` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.category`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:rangeCategory.id</t>
@@ -647,8 +647,8 @@
     <t>The range of values defined for continuous or ordinal observations that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>The unit may be not relevant for ordinal values. In case it is there, it is the same as ObservationDefinition.unit. Element `ObservationDefinition.qualifiedValue.range` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Element `ObservationDefinition.qualifiedValue.range` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.range`.</t>
+    <t>The unit may be not relevant for ordinal values. In case it is there, it is the same as ObservationDefinition.unit. Element `ObservationDefinition.qualifiedValue.range` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
+Element `ObservationDefinition.qualifiedValue.range` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.range`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:range.id</t>
@@ -678,9 +678,9 @@
     <t>The set of valid coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`.</t>
+Element `ObservationDefinition.qualifiedValue.validCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:validCodedValueSet.id</t>
@@ -714,9 +714,9 @@
     <t>The set of normal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`.</t>
+Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:normalCodedValueSet.id</t>
@@ -746,9 +746,9 @@
     <t>The set of abnormal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`.</t>
+Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:abnormalCodedValueSet.id</t>
@@ -778,9 +778,9 @@
     <t>The set of critical coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`.</t>
+Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:criticalCodedValueSet.id</t>
@@ -1145,7 +1145,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="236.98046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="244">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,12 +407,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-referencerange-meaning-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -454,12 +448,6 @@
     <t>Extension.extension:appliesTo.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-referencerange-appliesto-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:gender</t>
   </si>
   <si>
@@ -495,12 +483,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-administrative-gender-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:age</t>
   </si>
   <si>
@@ -630,9 +612,6 @@
   </si>
   <si>
     <t>Extension.extension:rangeCategory.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-range-category-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:range</t>
@@ -698,7 +677,7 @@
     <t>Extension.extension:validCodedValueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -1156,7 +1135,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2072,41 +2051,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2114,13 +2095,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2145,16 +2126,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2223,7 +2204,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2326,7 +2307,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2431,7 +2412,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2474,7 +2455,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2536,7 +2517,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2565,13 +2546,13 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2597,11 +2578,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2619,7 +2602,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2631,7 +2614,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2639,13 +2622,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2670,14 +2653,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2746,7 +2729,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2849,7 +2832,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2954,7 +2937,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2997,7 +2980,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3059,7 +3042,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3085,13 +3068,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3118,11 +3101,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3140,7 +3125,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3152,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -3160,13 +3145,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3191,16 +3176,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3269,7 +3254,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3372,7 +3357,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3477,7 +3462,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3520,7 +3505,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3582,7 +3567,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3608,16 +3593,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3667,7 +3652,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3679,7 +3664,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3687,13 +3672,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3718,14 +3703,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3794,7 +3779,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3897,7 +3882,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4002,7 +3987,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4045,7 +4030,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4107,7 +4092,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -4133,13 +4118,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4190,7 +4175,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4202,7 +4187,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4210,13 +4195,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4241,14 +4226,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4317,7 +4302,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4420,7 +4405,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4525,7 +4510,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4568,7 +4553,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4630,7 +4615,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4659,10 +4644,10 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4713,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4725,7 +4710,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>120</v>
@@ -4733,13 +4718,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4764,14 +4749,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4840,7 +4825,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4943,7 +4928,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5048,7 +5033,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5091,7 +5076,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5153,7 +5138,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5179,13 +5164,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5212,11 +5197,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5246,7 +5233,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>120</v>
@@ -5254,13 +5241,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5285,14 +5272,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5348,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5464,7 +5451,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5569,7 +5556,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5612,7 +5599,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5661,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5700,13 +5687,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5757,7 +5744,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5769,7 +5756,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>120</v>
@@ -5777,13 +5764,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5808,14 +5795,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5884,7 +5871,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5987,7 +5974,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6092,7 +6079,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6135,7 +6122,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6197,7 +6184,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6223,13 +6210,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6280,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6292,7 +6279,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>120</v>
@@ -6300,13 +6287,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6331,14 +6318,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6407,7 +6394,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6510,7 +6497,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6615,7 +6602,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6658,7 +6645,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6720,7 +6707,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6746,13 +6733,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6803,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6815,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>120</v>
@@ -6823,13 +6810,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6854,14 +6841,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6930,7 +6917,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7033,7 +7020,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7138,7 +7125,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7181,7 +7168,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7243,7 +7230,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7269,13 +7256,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7326,7 +7313,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7338,7 +7325,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>120</v>
@@ -7346,13 +7333,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7377,14 +7364,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7440,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7556,7 +7543,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7661,7 +7648,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7704,7 +7691,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7766,7 +7753,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7792,13 +7779,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7849,7 +7836,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7861,7 +7848,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>120</v>
@@ -7974,10 +7961,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8000,13 +7987,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8057,7 +8044,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -8069,7 +8056,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.qualifiedValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="249">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ObservationDefinition.qualifiedInterval` 0..* `BackboneElement`
 *  R4: `ObservationDefinition.qualifiedInterval` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ObservationDefinition.qualifiedValue` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval`, but has no comparisons.</t>
+Element `ObservationDefinition.qualifiedValue` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>A concept defining the context for this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.context` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.context` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.context`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.context` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.context` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:context.id</t>
@@ -407,6 +406,12 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -429,8 +434,7 @@
     <t>If this element is not present then the global population is assumed.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.appliesTo` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.appliesTo` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.appliesTo`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.appliesTo` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.appliesTo` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:appliesTo.id</t>
@@ -460,8 +464,7 @@
     <t>The gender this  set of qualified values applies to.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.gender` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.gender` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gender`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.gender` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gender` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:gender.id</t>
@@ -483,6 +486,12 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:age</t>
   </si>
   <si>
@@ -498,8 +507,7 @@
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.age` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.age` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.age`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.age` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.age` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:age.id</t>
@@ -533,8 +541,7 @@
     <t>The gestational age this  set of qualified values applies to.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.gestationalAge` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.gestationalAge` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gestationalAge`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.gestationalAge` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.gestationalAge` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:gestationalAge.id</t>
@@ -564,8 +571,7 @@
     <t>Text based condition for which the the set of qualified values is valid.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.condition` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.condition` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.condition`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.condition` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.condition` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -595,8 +601,7 @@
     <t>The category of range of values for continuous or ordinal observations that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.rangeCategory` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.rangeCategory` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.category`, but has no comparisons.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.rangeCategory` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.category` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:rangeCategory.id</t>
@@ -614,6 +619,9 @@
     <t>Extension.extension:rangeCategory.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-range-category|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:range</t>
   </si>
   <si>
@@ -626,8 +634,7 @@
     <t>The range of values defined for continuous or ordinal observations that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>The unit may be not relevant for ordinal values. In case it is there, it is the same as ObservationDefinition.unit. Element `ObservationDefinition.qualifiedValue.range` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Element `ObservationDefinition.qualifiedValue.range` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.range`, but has no comparisons.</t>
+    <t>The unit may be not relevant for ordinal values. In case it is there, it is the same as ObservationDefinition.unit. Element `ObservationDefinition.qualifiedValue.range` is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval.range` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:range.id</t>
@@ -657,9 +664,8 @@
     <t>The set of valid coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.validCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:validCodedValueSet.id</t>
@@ -677,7 +683,7 @@
     <t>Extension.extension:validCodedValueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
 </t>
   </si>
   <si>
@@ -693,9 +699,8 @@
     <t>The set of normal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:normalCodedValueSet.id</t>
@@ -725,9 +730,8 @@
     <t>The set of abnormal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:abnormalCodedValueSet.id</t>
@@ -757,9 +761,8 @@
     <t>The set of critical coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` has is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:criticalCodedValueSet.id</t>
@@ -1124,7 +1127,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="236.98046875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1135,7 +1138,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2051,13 +2054,11 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2075,7 +2076,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2087,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2095,13 +2096,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2126,16 +2127,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2204,7 +2205,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2412,7 +2413,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2455,7 +2456,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2517,7 +2518,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2546,13 +2547,13 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2602,7 +2603,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2614,7 +2615,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2622,13 +2623,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2653,14 +2654,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2729,7 +2730,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2832,7 +2833,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2937,7 +2938,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2980,7 +2981,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3042,7 +3043,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3068,13 +3069,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3101,13 +3102,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3125,7 +3124,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3137,7 +3136,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -3145,13 +3144,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3176,16 +3175,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3254,7 +3253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3357,7 +3356,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3462,7 +3461,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3505,7 +3504,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3567,7 +3566,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3593,16 +3592,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3652,7 +3651,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3664,7 +3663,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3672,13 +3671,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3703,14 +3702,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3779,7 +3778,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3882,7 +3881,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3987,7 +3986,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4030,7 +4029,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4092,7 +4091,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -4118,13 +4117,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4175,7 +4174,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4187,7 +4186,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4195,13 +4194,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4226,14 +4225,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4302,7 +4301,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4405,7 +4404,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4510,7 +4509,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4553,7 +4552,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4615,7 +4614,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4644,10 +4643,10 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4698,7 +4697,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4710,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>120</v>
@@ -4718,13 +4717,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4749,14 +4748,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4825,7 +4824,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4928,7 +4927,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5033,7 +5032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5076,7 +5075,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5138,7 +5137,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5164,13 +5163,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5197,13 +5196,11 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5221,7 +5218,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5233,7 +5230,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>120</v>
@@ -5241,13 +5238,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5272,14 +5269,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5556,7 +5553,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5599,7 +5596,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5658,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5687,13 +5684,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5744,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5756,7 +5753,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>120</v>
@@ -5764,13 +5761,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5795,14 +5792,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5871,7 +5868,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6122,7 +6119,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6184,7 +6181,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6210,13 +6207,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6267,7 +6264,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6279,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>120</v>
@@ -6287,13 +6284,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6318,14 +6315,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6394,7 +6391,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6497,7 +6494,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6602,7 +6599,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6645,7 +6642,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6733,13 +6730,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6790,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6802,7 +6799,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>120</v>
@@ -6810,13 +6807,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6841,14 +6838,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6917,7 +6914,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7020,7 +7017,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7125,7 +7122,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7168,7 +7165,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7230,7 +7227,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7256,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7313,7 +7310,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7325,7 +7322,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>120</v>
@@ -7333,13 +7330,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7364,14 +7361,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7543,7 +7540,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7648,7 +7645,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7691,7 +7688,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7753,7 +7750,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7779,13 +7776,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7836,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7848,7 +7845,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>120</v>
@@ -7961,10 +7958,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7987,13 +7984,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8044,7 +8041,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>120</v>
